--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_PD_CR_DR.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_PD_CR_DR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\Sample Uploads\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\ETI_ECL_Engine\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC063B6C-CCAB-4471-AD52-6DE1CA472F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82665A5-23E5-4728-AD5E-106E9A1DE316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="3960" windowWidth="18330" windowHeight="11205" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="27" r:id="rId1"/>
@@ -641,11 +641,12 @@
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="88">
     <cellStyle name="20% - Accent1" xfId="64" builtinId="30" customBuiltin="1"/>
@@ -1024,7 +1025,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,13 +1034,13 @@
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -1062,25 +1063,25 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1090,17 +1091,17 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>1534812300</v>
       </c>
-      <c r="J2" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
+      <c r="K2" s="4">
+        <v>201603</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1110,17 +1111,17 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>60000000</v>
       </c>
-      <c r="J3" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K3">
-        <v>9</v>
+      <c r="K3" s="4">
+        <v>201603</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1130,17 +1131,17 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>60000000</v>
       </c>
-      <c r="J4" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
+      <c r="K4" s="4">
+        <v>201603</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1150,17 +1151,17 @@
       <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>80000000</v>
       </c>
-      <c r="J5" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
+      <c r="K5" s="4">
+        <v>201603</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1170,17 +1171,17 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>47353708</v>
       </c>
-      <c r="J6" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
+      <c r="K6" s="4">
+        <v>201603</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1190,17 +1191,17 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>31409320</v>
       </c>
-      <c r="J7" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
+      <c r="K7" s="4">
+        <v>201603</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1210,17 +1211,17 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5333333</v>
       </c>
-      <c r="J8" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
+      <c r="K8" s="4">
+        <v>201603</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1230,17 +1231,17 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>294886401</v>
       </c>
-      <c r="J9" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
+      <c r="K9" s="4">
+        <v>201603</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1250,17 +1251,17 @@
       <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>102111810</v>
       </c>
-      <c r="J10" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
+      <c r="K10" s="4">
+        <v>201603</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1270,17 +1271,17 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>276128584</v>
       </c>
-      <c r="J11" s="1">
-        <v>42432</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
+      <c r="K11" s="4">
+        <v>201603</v>
       </c>
     </row>
   </sheetData>

--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_PD_CR_DR.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_PD_CR_DR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\ETI_ECL_Engine\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82665A5-23E5-4728-AD5E-106E9A1DE316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8068D2E0-4409-46C9-99C9-AADAC8E5FD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="3960" windowWidth="18330" windowHeight="11205" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="27" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Customer_No</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>SEGMENT</t>
+  </si>
+  <si>
+    <t>CONSUMER</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B1E5E2-FB3A-4804-B949-E2061B45DF3F}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1055,7 @@
     <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1089,11 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1103,8 +1112,11 @@
       <c r="K2" s="4">
         <v>201603</v>
       </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1123,8 +1135,11 @@
       <c r="K3" s="4">
         <v>201603</v>
       </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1158,11 @@
       <c r="K4" s="4">
         <v>201603</v>
       </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1163,8 +1181,11 @@
       <c r="K5" s="4">
         <v>201603</v>
       </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1183,8 +1204,11 @@
       <c r="K6" s="4">
         <v>201603</v>
       </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1203,8 +1227,11 @@
       <c r="K7" s="4">
         <v>201603</v>
       </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1223,8 +1250,11 @@
       <c r="K8" s="4">
         <v>201603</v>
       </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1243,8 +1273,11 @@
       <c r="K9" s="4">
         <v>201603</v>
       </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1263,8 +1296,11 @@
       <c r="K10" s="4">
         <v>201603</v>
       </c>
+      <c r="L10" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>

--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_PD_CR_DR.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_PD_CR_DR.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\ETI_ECL_Engine\angular\src\assets\sampleFiles\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PwC\Projects\SourceCode\Firs_9_ECL\FrontEnd\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8068D2E0-4409-46C9-99C9-AADAC8E5FD0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF53D88-D763-42AD-A1A5-4B18FF3083F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="27" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1031,7 +1029,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,11 +1046,10 @@
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
